--- a/data/3 - 15MHZ_02-L.xlsx
+++ b/data/3 - 15MHZ_02-L.xlsx
@@ -34,18 +34,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,9 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,546 +339,545 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.7109375" customWidth="1"/>
+    <col min="1" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-36.39</v>
+        <v>-37.18</v>
       </c>
       <c r="B1">
+        <v>-29.6</v>
+      </c>
+      <c r="C1">
+        <v>-30.2</v>
+      </c>
+      <c r="D1">
+        <v>-25.59</v>
+      </c>
+      <c r="E1">
+        <v>-23.77</v>
+      </c>
+      <c r="F1">
+        <v>-24.88</v>
+      </c>
+      <c r="G1">
+        <v>-23.7</v>
+      </c>
+      <c r="H1">
+        <v>-23.4</v>
+      </c>
+      <c r="I1">
+        <v>-21.72</v>
+      </c>
+      <c r="J1">
+        <v>-21.32</v>
+      </c>
+      <c r="K1">
+        <v>-22.47</v>
+      </c>
+      <c r="L1">
         <v>-28.16</v>
       </c>
-      <c r="C1">
-        <v>-26.75</v>
-      </c>
-      <c r="D1">
-        <v>-30.29</v>
-      </c>
-      <c r="E1">
-        <v>-25.07</v>
-      </c>
-      <c r="F1">
-        <v>-36.71</v>
-      </c>
-      <c r="G1">
-        <v>-23.19</v>
-      </c>
-      <c r="H1">
-        <v>-20.149999999999999</v>
-      </c>
-      <c r="I1">
-        <v>-22.46</v>
-      </c>
-      <c r="J1">
-        <v>-20.22</v>
-      </c>
-      <c r="K1">
-        <v>-20.99</v>
-      </c>
-      <c r="L1">
-        <v>-28.3</v>
-      </c>
       <c r="M1">
-        <v>-35.71</v>
+        <v>-34.44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-38.200000000000003</v>
+        <v>-28.01</v>
       </c>
       <c r="B2">
-        <v>-30.56</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="C2">
-        <v>-21.47</v>
+        <v>-2.06</v>
       </c>
       <c r="D2">
-        <v>-18.13</v>
+        <v>-1.04</v>
       </c>
       <c r="E2">
-        <v>-29.63</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="F2">
-        <v>-28.58</v>
+        <v>-1.32</v>
       </c>
       <c r="G2">
-        <v>-31.94</v>
+        <v>-0.96</v>
       </c>
       <c r="H2">
-        <v>-22.05</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="I2">
-        <v>-22.8</v>
+        <v>-0.76</v>
       </c>
       <c r="J2">
-        <v>-20.81</v>
+        <v>-1.54</v>
       </c>
       <c r="K2">
-        <v>-18.100000000000001</v>
+        <v>-0.76</v>
       </c>
       <c r="L2">
-        <v>-26.34</v>
+        <v>-11.17</v>
       </c>
       <c r="M2">
-        <v>-27.2</v>
+        <v>-30.07</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-27.96</v>
+        <v>-22.36</v>
       </c>
       <c r="B3">
-        <v>-23.95</v>
+        <v>-13.18</v>
       </c>
       <c r="C3">
-        <v>-29.57</v>
+        <v>-30.9</v>
       </c>
       <c r="D3">
-        <v>-26.9</v>
+        <v>-27.42</v>
       </c>
       <c r="E3">
-        <v>-20.079999999999998</v>
+        <v>-23.65</v>
       </c>
       <c r="F3">
-        <v>-32.4</v>
+        <v>-27.63</v>
       </c>
       <c r="G3">
-        <v>-33.520000000000003</v>
+        <v>-26.72</v>
       </c>
       <c r="H3">
-        <v>-23.12</v>
+        <v>-25.47</v>
       </c>
       <c r="I3">
-        <v>-19.260000000000002</v>
+        <v>-24.98</v>
       </c>
       <c r="J3">
-        <v>-21.21</v>
+        <v>-24.73</v>
       </c>
       <c r="K3">
-        <v>-21.21</v>
+        <v>-16.54</v>
       </c>
       <c r="L3">
-        <v>-6.66</v>
+        <v>-7.47</v>
       </c>
       <c r="M3">
-        <v>-22.53</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-34.69</v>
+        <v>-20.85</v>
       </c>
       <c r="B4">
-        <v>-18.79</v>
+        <v>-12.26</v>
       </c>
       <c r="C4">
-        <v>-14.38</v>
+        <v>-32.380000000000003</v>
       </c>
       <c r="D4">
-        <v>-16.059999999999999</v>
+        <v>-33</v>
       </c>
       <c r="E4">
-        <v>-12.22</v>
+        <v>-30.39</v>
       </c>
       <c r="F4">
-        <v>-14.18</v>
+        <v>-31.25</v>
       </c>
       <c r="G4">
-        <v>-12.52</v>
+        <v>-34.36</v>
       </c>
       <c r="H4">
-        <v>-10.61</v>
+        <v>-35.01</v>
       </c>
       <c r="I4">
-        <v>-13.89</v>
+        <v>-20</v>
       </c>
       <c r="J4">
-        <v>-11.18</v>
+        <v>-22.28</v>
       </c>
       <c r="K4">
-        <v>-12.94</v>
+        <v>-17.920000000000002</v>
       </c>
       <c r="L4">
-        <v>-7.81</v>
+        <v>-8.94</v>
       </c>
       <c r="M4">
-        <v>-18.3</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-31.89</v>
+        <v>-20.239999999999998</v>
       </c>
       <c r="B5">
-        <v>-14.38</v>
+        <v>-13.99</v>
       </c>
       <c r="C5">
-        <v>-13.24</v>
+        <v>-33.33</v>
       </c>
       <c r="D5">
-        <v>-15.11</v>
+        <v>-33.450000000000003</v>
       </c>
       <c r="E5">
-        <v>-11.31</v>
+        <v>-33.090000000000003</v>
       </c>
       <c r="F5">
-        <v>-13.12</v>
+        <v>-30.9</v>
       </c>
       <c r="G5">
-        <v>-11.5</v>
+        <v>-33.770000000000003</v>
       </c>
       <c r="H5">
-        <v>-9.8800000000000008</v>
+        <v>-34.26</v>
       </c>
       <c r="I5">
-        <v>-12.86</v>
+        <v>-30.52</v>
       </c>
       <c r="J5">
-        <v>-10.61</v>
+        <v>-20.99</v>
       </c>
       <c r="K5">
-        <v>-15.78</v>
+        <v>-17.41</v>
       </c>
       <c r="L5">
-        <v>-6.38</v>
+        <v>-9.16</v>
       </c>
       <c r="M5">
-        <v>-17.38</v>
+        <v>-28.41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-30.75</v>
+        <v>-19.940000000000001</v>
       </c>
       <c r="B6">
-        <v>-13.79</v>
+        <v>-13.99</v>
       </c>
       <c r="C6">
-        <v>-9.69</v>
+        <v>-33.31</v>
       </c>
       <c r="D6">
-        <v>-13.99</v>
+        <v>-34.51</v>
       </c>
       <c r="E6">
-        <v>-11.18</v>
+        <v>-34.549999999999997</v>
       </c>
       <c r="F6">
-        <v>-12.32</v>
+        <v>-34.26</v>
       </c>
       <c r="G6">
-        <v>-10.55</v>
+        <v>-35.57</v>
       </c>
       <c r="H6">
-        <v>-11</v>
+        <v>-35.57</v>
       </c>
       <c r="I6">
-        <v>-12.12</v>
+        <v>-25.26</v>
       </c>
       <c r="J6">
-        <v>-10.79</v>
+        <v>-21.96</v>
       </c>
       <c r="K6">
-        <v>-16.12</v>
+        <v>-18.64</v>
       </c>
       <c r="L6">
-        <v>-6.21</v>
+        <v>-7.95</v>
       </c>
       <c r="M6">
-        <v>-17.71</v>
+        <v>-34.880000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-28.62</v>
+        <v>-18.55</v>
       </c>
       <c r="B7">
-        <v>-13.17</v>
+        <v>-34.380000000000003</v>
       </c>
       <c r="C7">
-        <v>-12.31</v>
+        <v>-34.54</v>
       </c>
       <c r="D7">
-        <v>-23.05</v>
+        <v>-35.29</v>
       </c>
       <c r="E7">
-        <v>-11.84</v>
+        <v>-35.46</v>
       </c>
       <c r="F7">
-        <v>-12.57</v>
+        <v>-35.57</v>
       </c>
       <c r="G7">
-        <v>-12.89</v>
+        <v>-36.01</v>
       </c>
       <c r="H7">
-        <v>-10.36</v>
+        <v>-36</v>
       </c>
       <c r="I7">
-        <v>-11.35</v>
+        <v>-21.01</v>
       </c>
       <c r="J7">
-        <v>-9.7200000000000006</v>
+        <v>-37.08</v>
       </c>
       <c r="K7">
-        <v>-17.02</v>
+        <v>-20.48</v>
       </c>
       <c r="L7">
-        <v>-3.34</v>
+        <v>-9.19</v>
       </c>
       <c r="M7">
-        <v>-18.100000000000001</v>
+        <v>-33.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-28.28</v>
+        <v>-43.87</v>
       </c>
       <c r="B8">
-        <v>-13.96</v>
+        <v>-35.72</v>
       </c>
       <c r="C8">
-        <v>-22.47</v>
+        <v>-35.1</v>
       </c>
       <c r="D8">
-        <v>-24.36</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="E8">
-        <v>-11.28</v>
+        <v>-36.07</v>
       </c>
       <c r="F8">
-        <v>-10.93</v>
+        <v>-36.590000000000003</v>
       </c>
       <c r="G8">
-        <v>-14.57</v>
+        <v>-33.619999999999997</v>
       </c>
       <c r="H8">
-        <v>-9.67</v>
+        <v>-35.770000000000003</v>
       </c>
       <c r="I8">
-        <v>-11.21</v>
+        <v>-34.36</v>
       </c>
       <c r="J8">
-        <v>-9.9700000000000006</v>
+        <v>-19.059999999999999</v>
       </c>
       <c r="K8">
-        <v>-18.93</v>
+        <v>-17.260000000000002</v>
       </c>
       <c r="L8">
-        <v>-1.78</v>
+        <v>-10.01</v>
       </c>
       <c r="M8">
-        <v>-18.5</v>
+        <v>-33.28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-28.04</v>
+        <v>-43.32</v>
       </c>
       <c r="B9">
-        <f>-14.36</f>
-        <v>-14.36</v>
+        <v>-36.35</v>
       </c>
       <c r="C9">
-        <v>-25.46</v>
+        <v>-35.409999999999997</v>
       </c>
       <c r="D9">
-        <v>-23.29</v>
+        <v>-36.35</v>
       </c>
       <c r="E9">
-        <v>-9.52</v>
+        <v>-36.46</v>
       </c>
       <c r="F9">
-        <v>-12.48</v>
+        <v>-35.75</v>
       </c>
       <c r="G9">
-        <v>-14.36</v>
+        <v>-33.53</v>
       </c>
       <c r="H9">
-        <v>-8.51</v>
+        <v>-30.25</v>
       </c>
       <c r="I9">
-        <v>-11.1</v>
+        <v>-34.49</v>
       </c>
       <c r="J9">
-        <v>-10.130000000000001</v>
+        <v>-19.149999999999999</v>
       </c>
       <c r="K9">
-        <v>-20.350000000000001</v>
+        <v>-20.88</v>
       </c>
       <c r="L9">
-        <v>-3.26</v>
+        <v>-9.65</v>
       </c>
       <c r="M9">
-        <v>-19.29</v>
+        <v>-33.369999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-28.45</v>
+        <v>-43.78</v>
       </c>
       <c r="B10">
-        <v>-14.1</v>
+        <v>-37.36</v>
       </c>
       <c r="C10">
-        <v>-25.19</v>
+        <v>-36.71</v>
       </c>
       <c r="D10">
-        <v>-23.21</v>
+        <v>-36.57</v>
       </c>
       <c r="E10">
-        <v>-9.5299999999999994</v>
+        <v>-37.46</v>
       </c>
       <c r="F10">
-        <v>-14.6</v>
+        <v>-36.31</v>
       </c>
       <c r="G10">
-        <v>-14.16</v>
+        <v>-34.14</v>
       </c>
       <c r="H10">
-        <v>-8.24</v>
+        <v>-33.56</v>
       </c>
       <c r="I10">
-        <v>-10.039999999999999</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="J10">
-        <v>-9.2799999999999994</v>
+        <v>-19.72</v>
       </c>
       <c r="K10">
-        <v>-17.72</v>
+        <v>-21.65</v>
       </c>
       <c r="L10">
-        <v>1.4</v>
+        <v>-9.65</v>
       </c>
       <c r="M10">
-        <v>-20.11</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-27.89</v>
+        <v>-44.87</v>
       </c>
       <c r="B11">
-        <v>-14.6</v>
+        <v>-34.33</v>
       </c>
       <c r="C11">
-        <v>-25.02</v>
+        <v>-37.28</v>
       </c>
       <c r="D11">
-        <v>-23.57</v>
+        <v>-36.99</v>
       </c>
       <c r="E11">
-        <v>-11.53</v>
+        <v>-37.92</v>
       </c>
       <c r="F11">
-        <v>-14.38</v>
+        <v>-36.46</v>
       </c>
       <c r="G11">
-        <v>-14.16</v>
+        <v>-34.93</v>
       </c>
       <c r="H11">
-        <v>-8.5500000000000007</v>
+        <v>-35.18</v>
       </c>
       <c r="I11">
-        <v>-10.039999999999999</v>
+        <v>-32.770000000000003</v>
       </c>
       <c r="J11">
-        <v>-9.76</v>
+        <v>-33.53</v>
       </c>
       <c r="K11">
-        <v>-18.21</v>
+        <v>-29.99</v>
       </c>
       <c r="L11">
-        <v>6.27</v>
+        <v>-8.52</v>
       </c>
       <c r="M11">
-        <v>-25.31</v>
+        <v>-49.49</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-28.65</v>
+        <v>-46.33</v>
       </c>
       <c r="B12">
-        <v>-15.03</v>
+        <v>-42.85</v>
       </c>
       <c r="C12">
-        <v>-25.62</v>
+        <v>-41.55</v>
       </c>
       <c r="D12">
-        <v>-22.34</v>
+        <v>-40.659999999999997</v>
       </c>
       <c r="E12">
-        <v>-12.48</v>
+        <v>-41.52</v>
       </c>
       <c r="F12">
-        <v>-13.87</v>
+        <v>-40.01</v>
       </c>
       <c r="G12">
-        <v>-14.57</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="H12">
-        <v>-8.83</v>
+        <v>-38.35</v>
       </c>
       <c r="I12">
-        <v>-10.65</v>
+        <v>-35.869999999999997</v>
       </c>
       <c r="J12">
-        <v>-10.65</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-29.66</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-32.47</v>
+        <v>-35.479999999999997</v>
+      </c>
+      <c r="K12">
+        <v>-38.96</v>
+      </c>
+      <c r="L12">
+        <v>-39.86</v>
       </c>
       <c r="M12">
-        <v>-29.04</v>
+        <v>-37.08</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-29.57</v>
+        <v>-47.57</v>
       </c>
       <c r="B13">
-        <v>-18.57</v>
+        <v>-47</v>
       </c>
       <c r="C13">
-        <v>-29.52</v>
+        <v>-45.49</v>
       </c>
       <c r="D13">
-        <v>-26.83</v>
+        <v>-44.33</v>
       </c>
       <c r="E13">
-        <v>-16.7</v>
+        <v>-45.33</v>
       </c>
       <c r="F13">
-        <v>-18.88</v>
+        <v>-44.01</v>
       </c>
       <c r="G13">
-        <v>-13.48</v>
+        <v>-42.54</v>
       </c>
       <c r="H13">
-        <v>-12.6</v>
+        <v>-42.09</v>
       </c>
       <c r="I13">
-        <v>-13.89</v>
+        <v>-41.9</v>
       </c>
       <c r="J13">
-        <v>-14.2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-33.28</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-29.78</v>
+        <v>-37.96</v>
+      </c>
+      <c r="K13">
+        <v>-38.909999999999997</v>
+      </c>
+      <c r="L13">
+        <v>-40.85</v>
       </c>
       <c r="M13">
-        <v>-35.71</v>
+        <v>-34.76</v>
       </c>
     </row>
   </sheetData>
